--- a/data/trans_dic/P32E$amigos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -814,7 +814,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1426595088747291</v>
+        <v>0.1426595088747292</v>
       </c>
     </row>
     <row r="5">
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06830062298430362</v>
+        <v>0.05479061726687317</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.05192736821227694</v>
+        <v>0.04766585682170971</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.349843083007284</v>
+        <v>0.3344104253728335</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.2837888600113203</v>
+        <v>0.2939369873944036</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2548644376269768</v>
+        <v>0.2548644376269767</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2374082326568616</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.165785266693254</v>
+        <v>0.1507325842414013</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1082582240705842</v>
+        <v>0.1054136959383301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1713553685407204</v>
+        <v>0.1733678289096547</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3865521301464779</v>
+        <v>0.3799783892032856</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4380964020365447</v>
+        <v>0.4334313911671452</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.356810893526134</v>
+        <v>0.3669299483051796</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0684371681448299</v>
+        <v>0.08370291163177246</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1081768116227608</v>
+        <v>0.1106787844298226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1344381754400318</v>
+        <v>0.1401953915100707</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4837194010464246</v>
+        <v>0.4742259799963384</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5025098672574305</v>
+        <v>0.5274200968532181</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.412220254458281</v>
+        <v>0.4385509889723276</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.237492766193493</v>
+        <v>0.2374927661934929</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2329199498791099</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1599724414499584</v>
+        <v>0.1610758358712963</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1328688813956432</v>
+        <v>0.1346605519804679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1720085691737768</v>
+        <v>0.1724048061507144</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3379590652157114</v>
+        <v>0.3348468961811845</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3681562955170439</v>
+        <v>0.3677833729835317</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3169621310076008</v>
+        <v>0.3100828412200599</v>
       </c>
     </row>
     <row r="16">
@@ -906,11 +906,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1992</v>
+        <v>1598</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>1817</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="7">
@@ -921,11 +921,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10203</v>
+        <v>9753</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>9931</v>
+        <v>10286</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17331</v>
+        <v>15758</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3254</v>
+        <v>3169</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23064</v>
+        <v>23335</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40411</v>
+        <v>39723</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13168</v>
+        <v>13028</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48026</v>
+        <v>49388</v>
       </c>
     </row>
     <row r="12">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1842</v>
+        <v>2253</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2983</v>
+        <v>3052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7326</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13021</v>
+        <v>12766</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13857</v>
+        <v>14544</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22464</v>
+        <v>23899</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25695</v>
+        <v>25873</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8432</v>
+        <v>8546</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38545</v>
+        <v>38634</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54284</v>
+        <v>53784</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23364</v>
+        <v>23341</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>71027</v>
+        <v>69486</v>
       </c>
     </row>
     <row r="20">
